--- a/visuals/trafficSW-stack-departures.xlsx
+++ b/visuals/trafficSW-stack-departures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\sourcetree\ATM-Team-Green\visuals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72250571-67F9-4877-A636-228D7652C9E0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82119E4B-0833-4DBC-BD73-9EA3027425E6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1262,7 +1262,10 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="29" formatCode="mm:ss.0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1288,8 +1291,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="2"/>
+      <tableStyleElement type="headerRow" dxfId="1"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1301,6 +1304,32 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{11FF604F-522C-409E-9AA8-B0F014A2E65A}" name="Tableau1" displayName="Tableau1" ref="A1:H87" totalsRowShown="0">
+  <autoFilter ref="A1:H87" xr:uid="{079BFFFB-3E61-4C6D-B410-5C9322AD324B}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="EHAM"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H86">
+    <sortCondition ref="D1:D87"/>
+  </sortState>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{D0837D70-9FB4-4AD2-8196-0690DDB2B3C3}" name="Orig"/>
+    <tableColumn id="2" xr3:uid="{44CC017A-D7D4-4321-9490-482EC8EC4639}" name="Dir"/>
+    <tableColumn id="3" xr3:uid="{58249BFD-741B-4874-9179-DF48DE77A9C6}" name="Dest"/>
+    <tableColumn id="4" xr3:uid="{67357806-625B-4201-904B-4BBB1327B85B}" name="Time" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{910CC13A-E982-4B10-81CD-42AAE3A92AE3}" name="Callsign"/>
+    <tableColumn id="6" xr3:uid="{11A10A4C-0422-4B3D-91E2-A92020A7F06F}" name="StartLat"/>
+    <tableColumn id="7" xr3:uid="{09AF358D-3126-4B88-9065-5C81BBB887D5}" name="StartLon"/>
+    <tableColumn id="8" xr3:uid="{14F414B8-327B-4C01-9791-0179422E93F2}" name="Creline"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1602,7 +1631,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1637,16 +1668,16 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>21</v>
+        <v>221</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>203</v>
       </c>
       <c r="D2" s="1">
-        <v>9.253472222222222E-3</v>
+        <v>2.3148148148148148E-6</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>204</v>
       </c>
       <c r="F2">
         <v>52.3</v>
@@ -1655,10 +1686,10 @@
         <v>4.78</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1684,7 +1715,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1710,7 +1741,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1736,7 +1767,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1759,7 +1790,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1785,7 +1816,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1813,16 +1844,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>22</v>
+        <v>221</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>206</v>
       </c>
       <c r="D9" s="1">
-        <v>1.6108796296296295E-2</v>
+        <v>1.0439814814814815E-3</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>207</v>
       </c>
       <c r="F9">
         <v>52.3</v>
@@ -1831,10 +1862,10 @@
         <v>4.78</v>
       </c>
       <c r="H9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1860,7 +1891,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1888,16 +1919,16 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="D12" s="1">
-        <v>4.168981481481481E-3</v>
+        <v>2.0868055555555557E-3</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="F12">
         <v>52.3</v>
@@ -1906,7 +1937,7 @@
         <v>4.78</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1914,16 +1945,16 @@
         <v>8</v>
       </c>
       <c r="B13">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="D13" s="1">
-        <v>2.8207175925925924E-2</v>
+        <v>3.127314814814815E-3</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="F13">
         <v>52.3</v>
@@ -1932,10 +1963,10 @@
         <v>4.78</v>
       </c>
       <c r="H13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1966,16 +1997,16 @@
         <v>8</v>
       </c>
       <c r="B15">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D15" s="1">
-        <v>1.5065972222222222E-2</v>
+        <v>4.168981481481481E-3</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F15">
         <v>52.3</v>
@@ -1984,10 +2015,10 @@
         <v>4.78</v>
       </c>
       <c r="H15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2018,25 +2049,25 @@
         <v>8</v>
       </c>
       <c r="B17">
-        <v>40</v>
+        <v>152</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="D17" s="1">
-        <v>3.0706018518518521E-2</v>
+        <v>6.1261574074074074E-3</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>161</v>
       </c>
       <c r="F17">
-        <v>52.32</v>
+        <v>52.3</v>
       </c>
       <c r="G17">
         <v>4.78</v>
       </c>
       <c r="H17" t="s">
-        <v>56</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -2044,16 +2075,16 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>41</v>
+        <v>178</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>172</v>
       </c>
       <c r="D18" s="1">
-        <v>2.2342592592592591E-2</v>
+        <v>7.1678240740740739E-3</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>173</v>
       </c>
       <c r="F18">
         <v>52.3</v>
@@ -2062,7 +2093,7 @@
         <v>4.78</v>
       </c>
       <c r="H18" t="s">
-        <v>59</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -2070,28 +2101,28 @@
         <v>8</v>
       </c>
       <c r="B19">
-        <v>49</v>
+        <v>171</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>169</v>
       </c>
       <c r="D19" s="1">
-        <v>3.4872685185185187E-2</v>
+        <v>8.2106481481481492E-3</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>170</v>
       </c>
       <c r="F19">
-        <v>52.32</v>
+        <v>52.3</v>
       </c>
       <c r="G19">
         <v>4.78</v>
       </c>
       <c r="H19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -2114,7 +2145,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2140,7 +2171,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -2171,25 +2202,25 @@
         <v>8</v>
       </c>
       <c r="B23">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="D23" s="1">
-        <v>2.9664351851851855E-2</v>
+        <v>9.253472222222222E-3</v>
       </c>
       <c r="E23" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F23">
-        <v>52.32</v>
+        <v>52.3</v>
       </c>
       <c r="G23">
         <v>4.78</v>
       </c>
       <c r="H23" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -2197,16 +2228,16 @@
         <v>8</v>
       </c>
       <c r="B24">
-        <v>51</v>
+        <v>208</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>191</v>
       </c>
       <c r="D24" s="1">
-        <v>3.8622685185185184E-2</v>
+        <v>1.0296296296296296E-2</v>
       </c>
       <c r="E24" t="s">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="F24">
         <v>52.3</v>
@@ -2215,10 +2246,10 @@
         <v>4.78</v>
       </c>
       <c r="H24" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -2249,16 +2280,16 @@
         <v>8</v>
       </c>
       <c r="B26">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="D26" s="1">
-        <v>2.3385416666666662E-2</v>
+        <v>1.5065972222222222E-2</v>
       </c>
       <c r="E26" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="F26">
         <v>52.3</v>
@@ -2267,10 +2298,10 @@
         <v>4.78</v>
       </c>
       <c r="H26" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -2296,7 +2327,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>83</v>
       </c>
@@ -2322,7 +2353,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>86</v>
       </c>
@@ -2348,7 +2379,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -2371,7 +2402,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2394,7 +2425,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2417,7 +2448,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -2448,28 +2479,28 @@
         <v>8</v>
       </c>
       <c r="B34">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="D34" s="1">
-        <v>3.9039351851851853E-2</v>
+        <v>1.6108796296296295E-2</v>
       </c>
       <c r="E34" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="F34">
-        <v>52.32</v>
+        <v>52.3</v>
       </c>
       <c r="G34">
         <v>4.78</v>
       </c>
       <c r="H34" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -2492,7 +2523,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -2520,16 +2551,16 @@
         <v>8</v>
       </c>
       <c r="B37">
-        <v>61</v>
+        <v>129</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="D37" s="1">
-        <v>2.4427083333333332E-2</v>
+        <v>2.1299768518518516E-2</v>
       </c>
       <c r="E37" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="F37">
         <v>52.3</v>
@@ -2538,10 +2569,10 @@
         <v>4.78</v>
       </c>
       <c r="H37" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -2567,7 +2598,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -2590,7 +2621,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>30</v>
       </c>
@@ -2613,7 +2644,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>30</v>
       </c>
@@ -2636,7 +2667,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>30</v>
       </c>
@@ -2659,7 +2690,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>30</v>
       </c>
@@ -2682,7 +2713,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -2713,25 +2744,25 @@
         <v>8</v>
       </c>
       <c r="B45">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="D45" s="1">
-        <v>3.6954861111111112E-2</v>
+        <v>2.2342592592592591E-2</v>
       </c>
       <c r="E45" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="F45">
-        <v>52.32</v>
+        <v>52.3</v>
       </c>
       <c r="G45">
         <v>4.78</v>
       </c>
       <c r="H45" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -2739,28 +2770,28 @@
         <v>8</v>
       </c>
       <c r="B46">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="C46" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="D46" s="1">
-        <v>4.0079861111111115E-2</v>
+        <v>2.3385416666666662E-2</v>
       </c>
       <c r="E46" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="F46">
-        <v>52.32</v>
+        <v>52.3</v>
       </c>
       <c r="G46">
         <v>4.78</v>
       </c>
       <c r="H46" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>30</v>
       </c>
@@ -2788,16 +2819,16 @@
         <v>8</v>
       </c>
       <c r="B48">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="C48" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="D48" s="1">
-        <v>2.7552083333333335E-2</v>
+        <v>2.4427083333333332E-2</v>
       </c>
       <c r="E48" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="F48">
         <v>52.3</v>
@@ -2806,7 +2837,7 @@
         <v>4.78</v>
       </c>
       <c r="H48" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -2814,16 +2845,16 @@
         <v>8</v>
       </c>
       <c r="B49">
-        <v>120</v>
+        <v>257</v>
       </c>
       <c r="C49" t="s">
-        <v>134</v>
+        <v>213</v>
       </c>
       <c r="D49" s="1">
-        <v>2.0868055555555557E-3</v>
+        <v>2.5468749999999998E-2</v>
       </c>
       <c r="E49" t="s">
-        <v>135</v>
+        <v>214</v>
       </c>
       <c r="F49">
         <v>52.3</v>
@@ -2832,7 +2863,7 @@
         <v>4.78</v>
       </c>
       <c r="H49" t="s">
-        <v>136</v>
+        <v>215</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -2840,16 +2871,16 @@
         <v>8</v>
       </c>
       <c r="B50">
-        <v>120</v>
+        <v>208</v>
       </c>
       <c r="C50" t="s">
-        <v>134</v>
+        <v>191</v>
       </c>
       <c r="D50" s="1">
-        <v>3.9664351851851853E-2</v>
+        <v>2.6510416666666665E-2</v>
       </c>
       <c r="E50" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="F50">
         <v>52.3</v>
@@ -2858,7 +2889,7 @@
         <v>4.78</v>
       </c>
       <c r="H50" t="s">
-        <v>138</v>
+        <v>198</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -2866,16 +2897,16 @@
         <v>8</v>
       </c>
       <c r="B51">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C51" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D51" s="1">
-        <v>3.127314814814815E-3</v>
+        <v>2.7552083333333335E-2</v>
       </c>
       <c r="E51" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F51">
         <v>52.3</v>
@@ -2884,7 +2915,7 @@
         <v>4.78</v>
       </c>
       <c r="H51" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -2892,16 +2923,16 @@
         <v>8</v>
       </c>
       <c r="B52">
-        <v>129</v>
+        <v>36</v>
       </c>
       <c r="C52" t="s">
-        <v>142</v>
+        <v>41</v>
       </c>
       <c r="D52" s="1">
-        <v>2.1299768518518516E-2</v>
+        <v>2.8207175925925924E-2</v>
       </c>
       <c r="E52" t="s">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="F52">
         <v>52.3</v>
@@ -2910,7 +2941,7 @@
         <v>4.78</v>
       </c>
       <c r="H52" t="s">
-        <v>144</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -2918,28 +2949,28 @@
         <v>8</v>
       </c>
       <c r="B53">
-        <v>129</v>
+        <v>291</v>
       </c>
       <c r="C53" t="s">
-        <v>139</v>
+        <v>226</v>
       </c>
       <c r="D53" s="1">
-        <v>3.1747685185185184E-2</v>
+        <v>2.9247685185185186E-2</v>
       </c>
       <c r="E53" t="s">
-        <v>145</v>
+        <v>227</v>
       </c>
       <c r="F53">
-        <v>52.32</v>
+        <v>52.3</v>
       </c>
       <c r="G53">
         <v>4.78</v>
       </c>
       <c r="H53" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>30</v>
       </c>
@@ -2970,25 +3001,25 @@
         <v>8</v>
       </c>
       <c r="B55">
-        <v>135</v>
+        <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>149</v>
+        <v>71</v>
       </c>
       <c r="D55" s="1">
-        <v>3.1331018518518515E-2</v>
+        <v>2.9664351851851855E-2</v>
       </c>
       <c r="E55" t="s">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="F55">
-        <v>52.3</v>
+        <v>52.32</v>
       </c>
       <c r="G55">
         <v>4.78</v>
       </c>
       <c r="H55" t="s">
-        <v>151</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -2996,28 +3027,28 @@
         <v>8</v>
       </c>
       <c r="B56">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C56" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D56" s="1">
-        <v>4.1121527777777785E-2</v>
+        <v>3.0289351851851855E-2</v>
       </c>
       <c r="E56" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F56">
-        <v>52.32</v>
+        <v>52.3</v>
       </c>
       <c r="G56">
         <v>4.78</v>
       </c>
       <c r="H56" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>30</v>
       </c>
@@ -3045,25 +3076,25 @@
         <v>8</v>
       </c>
       <c r="B58">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="C58" t="s">
-        <v>157</v>
+        <v>49</v>
       </c>
       <c r="D58" s="1">
-        <v>3.0289351851851855E-2</v>
+        <v>3.0706018518518521E-2</v>
       </c>
       <c r="E58" t="s">
-        <v>158</v>
+        <v>55</v>
       </c>
       <c r="F58">
-        <v>52.3</v>
+        <v>52.32</v>
       </c>
       <c r="G58">
         <v>4.78</v>
       </c>
       <c r="H58" t="s">
-        <v>159</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -3071,16 +3102,16 @@
         <v>8</v>
       </c>
       <c r="B59">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="C59" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="D59" s="1">
-        <v>6.1261574074074074E-3</v>
+        <v>3.1331018518518515E-2</v>
       </c>
       <c r="E59" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="F59">
         <v>52.3</v>
@@ -3089,10 +3120,10 @@
         <v>4.78</v>
       </c>
       <c r="H59" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>27</v>
       </c>
@@ -3123,25 +3154,25 @@
         <v>8</v>
       </c>
       <c r="B61">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="C61" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="D61" s="1">
-        <v>3.7581018518518521E-2</v>
+        <v>3.1747685185185184E-2</v>
       </c>
       <c r="E61" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="F61">
-        <v>52.3</v>
+        <v>52.32</v>
       </c>
       <c r="G61">
         <v>4.78</v>
       </c>
       <c r="H61" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -3149,16 +3180,16 @@
         <v>8</v>
       </c>
       <c r="B62">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="C62" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="D62" s="1">
-        <v>8.2106481481481492E-3</v>
+        <v>3.2372685185185185E-2</v>
       </c>
       <c r="E62" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="F62">
         <v>52.3</v>
@@ -3167,7 +3198,7 @@
         <v>4.78</v>
       </c>
       <c r="H62" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -3175,28 +3206,28 @@
         <v>8</v>
       </c>
       <c r="B63">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="C63" t="s">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="D63" s="1">
-        <v>7.1678240740740739E-3</v>
+        <v>3.2788194444444446E-2</v>
       </c>
       <c r="E63" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="F63">
-        <v>52.3</v>
+        <v>52.32</v>
       </c>
       <c r="G63">
         <v>4.78</v>
       </c>
       <c r="H63" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>12</v>
       </c>
@@ -3227,25 +3258,25 @@
         <v>8</v>
       </c>
       <c r="B65">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="C65" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="D65" s="1">
-        <v>3.5913194444444449E-2</v>
+        <v>3.3414351851851855E-2</v>
       </c>
       <c r="E65" t="s">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="F65">
-        <v>52.32</v>
+        <v>52.3</v>
       </c>
       <c r="G65">
         <v>4.78</v>
       </c>
       <c r="H65" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -3253,22 +3284,25 @@
         <v>8</v>
       </c>
       <c r="B66">
-        <v>186</v>
+        <v>190</v>
+      </c>
+      <c r="C66" t="s">
+        <v>183</v>
       </c>
       <c r="D66" s="1">
-        <v>3.4456018518518518E-2</v>
+        <v>3.3829861111111116E-2</v>
       </c>
       <c r="E66" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F66">
-        <v>52.3</v>
+        <v>52.32</v>
       </c>
       <c r="G66">
         <v>4.78</v>
       </c>
       <c r="H66" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -3276,28 +3310,25 @@
         <v>8</v>
       </c>
       <c r="B67">
-        <v>190</v>
-      </c>
-      <c r="C67" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D67" s="1">
-        <v>3.3829861111111116E-2</v>
+        <v>3.4456018518518518E-2</v>
       </c>
       <c r="E67" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F67">
-        <v>52.32</v>
+        <v>52.3</v>
       </c>
       <c r="G67">
         <v>4.78</v>
       </c>
       <c r="H67" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>27</v>
       </c>
@@ -3328,25 +3359,25 @@
         <v>8</v>
       </c>
       <c r="B69">
-        <v>204</v>
+        <v>49</v>
       </c>
       <c r="C69" t="s">
-        <v>188</v>
+        <v>60</v>
       </c>
       <c r="D69" s="1">
-        <v>3.2372685185185185E-2</v>
+        <v>3.4872685185185187E-2</v>
       </c>
       <c r="E69" t="s">
-        <v>189</v>
+        <v>61</v>
       </c>
       <c r="F69">
-        <v>52.3</v>
+        <v>52.32</v>
       </c>
       <c r="G69">
         <v>4.78</v>
       </c>
       <c r="H69" t="s">
-        <v>190</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
@@ -3354,16 +3385,13 @@
         <v>8</v>
       </c>
       <c r="B70">
-        <v>208</v>
-      </c>
-      <c r="C70" t="s">
-        <v>191</v>
+        <v>279</v>
       </c>
       <c r="D70" s="1">
-        <v>1.0296296296296296E-2</v>
+        <v>3.5497685185185188E-2</v>
       </c>
       <c r="E70" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="F70">
         <v>52.3</v>
@@ -3372,10 +3400,10 @@
         <v>4.78</v>
       </c>
       <c r="H70" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>194</v>
       </c>
@@ -3403,28 +3431,28 @@
         <v>8</v>
       </c>
       <c r="B72">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="C72" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="D72" s="1">
-        <v>2.6510416666666665E-2</v>
+        <v>3.5913194444444449E-2</v>
       </c>
       <c r="E72" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="F72">
-        <v>52.3</v>
+        <v>52.32</v>
       </c>
       <c r="G72">
         <v>4.78</v>
       </c>
       <c r="H72" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>30</v>
       </c>
@@ -3455,25 +3483,25 @@
         <v>8</v>
       </c>
       <c r="B74">
-        <v>210</v>
+        <v>287</v>
       </c>
       <c r="C74" t="s">
-        <v>12</v>
+        <v>223</v>
       </c>
       <c r="D74" s="1">
-        <v>3.2788194444444446E-2</v>
+        <v>3.6539351851851851E-2</v>
       </c>
       <c r="E74" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="F74">
-        <v>52.32</v>
+        <v>52.3</v>
       </c>
       <c r="G74">
         <v>4.78</v>
       </c>
       <c r="H74" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -3481,25 +3509,25 @@
         <v>8</v>
       </c>
       <c r="B75">
-        <v>221</v>
+        <v>65</v>
       </c>
       <c r="C75" t="s">
-        <v>203</v>
+        <v>123</v>
       </c>
       <c r="D75" s="1">
-        <v>2.3148148148148148E-6</v>
+        <v>3.6954861111111112E-2</v>
       </c>
       <c r="E75" t="s">
-        <v>204</v>
+        <v>124</v>
       </c>
       <c r="F75">
-        <v>52.3</v>
+        <v>52.32</v>
       </c>
       <c r="G75">
         <v>4.78</v>
       </c>
       <c r="H75" t="s">
-        <v>205</v>
+        <v>125</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -3507,16 +3535,16 @@
         <v>8</v>
       </c>
       <c r="B76">
-        <v>221</v>
+        <v>161</v>
       </c>
       <c r="C76" t="s">
-        <v>206</v>
+        <v>166</v>
       </c>
       <c r="D76" s="1">
-        <v>1.0439814814814815E-3</v>
+        <v>3.7581018518518521E-2</v>
       </c>
       <c r="E76" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="F76">
         <v>52.3</v>
@@ -3525,10 +3553,10 @@
         <v>4.78</v>
       </c>
       <c r="H76" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>27</v>
       </c>
@@ -3559,25 +3587,25 @@
         <v>8</v>
       </c>
       <c r="B78">
-        <v>221</v>
+        <v>323</v>
       </c>
       <c r="C78" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="D78" s="1">
-        <v>3.3414351851851855E-2</v>
+        <v>3.7997685185185183E-2</v>
       </c>
       <c r="E78" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="F78">
-        <v>52.3</v>
+        <v>52.32</v>
       </c>
       <c r="G78">
         <v>4.78</v>
       </c>
       <c r="H78" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
@@ -3585,16 +3613,16 @@
         <v>8</v>
       </c>
       <c r="B79">
-        <v>257</v>
+        <v>51</v>
       </c>
       <c r="C79" t="s">
-        <v>213</v>
+        <v>71</v>
       </c>
       <c r="D79" s="1">
-        <v>2.5468749999999998E-2</v>
+        <v>3.8622685185185184E-2</v>
       </c>
       <c r="E79" t="s">
-        <v>214</v>
+        <v>74</v>
       </c>
       <c r="F79">
         <v>52.3</v>
@@ -3603,7 +3631,7 @@
         <v>4.78</v>
       </c>
       <c r="H79" t="s">
-        <v>215</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
@@ -3611,28 +3639,28 @@
         <v>8</v>
       </c>
       <c r="B80">
-        <v>275</v>
+        <v>60</v>
       </c>
       <c r="C80" t="s">
-        <v>216</v>
+        <v>97</v>
       </c>
       <c r="D80" s="1">
-        <v>4.0706018518518523E-2</v>
+        <v>3.9039351851851853E-2</v>
       </c>
       <c r="E80" t="s">
-        <v>217</v>
+        <v>98</v>
       </c>
       <c r="F80">
-        <v>52.3</v>
+        <v>52.32</v>
       </c>
       <c r="G80">
         <v>4.78</v>
       </c>
       <c r="H80" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>16</v>
       </c>
@@ -3660,13 +3688,16 @@
         <v>8</v>
       </c>
       <c r="B82">
-        <v>279</v>
+        <v>120</v>
+      </c>
+      <c r="C82" t="s">
+        <v>134</v>
       </c>
       <c r="D82" s="1">
-        <v>3.5497685185185188E-2</v>
+        <v>3.9664351851851853E-2</v>
       </c>
       <c r="E82" t="s">
-        <v>221</v>
+        <v>137</v>
       </c>
       <c r="F82">
         <v>52.3</v>
@@ -3675,7 +3706,7 @@
         <v>4.78</v>
       </c>
       <c r="H82" t="s">
-        <v>222</v>
+        <v>138</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
@@ -3683,25 +3714,25 @@
         <v>8</v>
       </c>
       <c r="B83">
-        <v>287</v>
+        <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>223</v>
+        <v>126</v>
       </c>
       <c r="D83" s="1">
-        <v>3.6539351851851851E-2</v>
+        <v>4.0079861111111115E-2</v>
       </c>
       <c r="E83" t="s">
-        <v>224</v>
+        <v>127</v>
       </c>
       <c r="F83">
-        <v>52.3</v>
+        <v>52.32</v>
       </c>
       <c r="G83">
         <v>4.78</v>
       </c>
       <c r="H83" t="s">
-        <v>225</v>
+        <v>128</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
@@ -3709,16 +3740,16 @@
         <v>8</v>
       </c>
       <c r="B84">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="C84" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D84" s="1">
-        <v>2.9247685185185186E-2</v>
+        <v>4.0706018518518523E-2</v>
       </c>
       <c r="E84" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F84">
         <v>52.3</v>
@@ -3727,10 +3758,10 @@
         <v>4.78</v>
       </c>
       <c r="H84" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>30</v>
       </c>
@@ -3761,16 +3792,16 @@
         <v>8</v>
       </c>
       <c r="B86">
-        <v>323</v>
+        <v>148</v>
       </c>
       <c r="C86" t="s">
-        <v>231</v>
+        <v>152</v>
       </c>
       <c r="D86" s="1">
-        <v>3.7997685185185183E-2</v>
+        <v>4.1121527777777785E-2</v>
       </c>
       <c r="E86" t="s">
-        <v>232</v>
+        <v>153</v>
       </c>
       <c r="F86">
         <v>52.32</v>
@@ -3779,10 +3810,10 @@
         <v>4.78</v>
       </c>
       <c r="H86" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>16</v>
       </c>
@@ -3810,5 +3841,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>